--- a/medicine/Enfance/Christine_Beigel/Christine_Beigel.xlsx
+++ b/medicine/Enfance/Christine_Beigel/Christine_Beigel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Beigel est une auteure de littérature jeunesse française née en 1972 à Paris.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Beigel a suivi des études de langues, dans l'idée de devenir traductrice. La rédaction d'un mémoire sur Raymond Queneau l'incite à passer à l'écriture pour la jeunesse, pour toutes les tranches d'âge. Ses domaines d'écriture sont très variés : polar, poésie, humour. Elle participe régulièrement à des rencontres en milieu scolaire, notamment pour animer des ateliers d'écriture[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Beigel a suivi des études de langues, dans l'idée de devenir traductrice. La rédaction d'un mémoire sur Raymond Queneau l'incite à passer à l'écriture pour la jeunesse, pour toutes les tranches d'âge. Ses domaines d'écriture sont très variés : polar, poésie, humour. Elle participe régulièrement à des rencontres en milieu scolaire, notamment pour animer des ateliers d'écriture.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a écrit  une centaine d'ouvrages [4],[5],[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a écrit  une centaine d'ouvrages 
 Le chat pelote (T. 1) Adoptez-moi !  Pierre Fouillet (illustrations), Gautier-Languereau, 2019
 Recueil Mamie Poule, 2019
 Cocotte tricote, Christine Destours (illustrations), Didier Jeunesse, 2019
@@ -554,7 +570,7 @@
 J'ai mis du sable dans mon cartable, illustrations de Clotilde Perrin, Éditions Sarbacane, 2010
 Je suis petite, mais, mon arbre est grand ! (2003)
 Truc et Bidule
-Le vengeur masqué des contes de fées[7], illustrations de Isabelle Chatellard, Gautier-Languereau, 2008
+Le vengeur masqué des contes de fées, illustrations de Isabelle Chatellard, Gautier-Languereau, 2008
 Regarde, éditions Mouton-Cerise, 2008
 Petons et Zinzins, Gautier-Languereau, 2008
 Au feu les pompiers, j’ai le cœur qui brûle, illustré par Élise Mansot, Gautier-Languereau, 2008.
